--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H2">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I2">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J2">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>0.4753135258373333</v>
+        <v>0.9878407997382221</v>
       </c>
       <c r="R2">
-        <v>4.277821732536</v>
+        <v>8.890567197644</v>
       </c>
       <c r="S2">
-        <v>0.04951916110994978</v>
+        <v>0.07512908666987639</v>
       </c>
       <c r="T2">
-        <v>0.04951916110994978</v>
+        <v>0.0751290866698764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H3">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I3">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J3">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>0.7252658520213332</v>
+        <v>0.623811586743111</v>
       </c>
       <c r="R3">
-        <v>6.527392668191999</v>
+        <v>5.614304280688</v>
       </c>
       <c r="S3">
-        <v>0.07555971926218748</v>
+        <v>0.04744326695001451</v>
       </c>
       <c r="T3">
-        <v>0.07555971926218748</v>
+        <v>0.04744326695001452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H4">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I4">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J4">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
-        <v>0.465950319648</v>
+        <v>0.400770569072</v>
       </c>
       <c r="R4">
-        <v>4.193552876831999</v>
+        <v>3.606935121648</v>
       </c>
       <c r="S4">
-        <v>0.04854368262976457</v>
+        <v>0.03048014095644257</v>
       </c>
       <c r="T4">
-        <v>0.04854368262976456</v>
+        <v>0.03048014095644257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.298115</v>
       </c>
       <c r="H5">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I5">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J5">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N5">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O5">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P5">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q5">
-        <v>1.852940837888333</v>
+        <v>4.477258113771666</v>
       </c>
       <c r="R5">
-        <v>16.676467540995</v>
+        <v>40.295323023945</v>
       </c>
       <c r="S5">
-        <v>0.1930432670035134</v>
+        <v>0.3405126746760181</v>
       </c>
       <c r="T5">
-        <v>0.1930432670035135</v>
+        <v>0.3405126746760181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.298115</v>
       </c>
       <c r="H6">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I6">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J6">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.452212</v>
       </c>
       <c r="O6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q6">
         <v>2.827343726793333</v>
@@ -818,10 +818,10 @@
         <v>25.44609354114</v>
       </c>
       <c r="S6">
-        <v>0.2945586058668143</v>
+        <v>0.2150303489712895</v>
       </c>
       <c r="T6">
-        <v>0.2945586058668143</v>
+        <v>0.2150303489712895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.298115</v>
       </c>
       <c r="H7">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I7">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J7">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.279252</v>
       </c>
       <c r="O7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q7">
         <v>1.81643973666</v>
@@ -880,10 +880,10 @@
         <v>16.34795762994</v>
       </c>
       <c r="S7">
-        <v>0.1892405056383024</v>
+        <v>0.1381472180965804</v>
       </c>
       <c r="T7">
-        <v>0.1892405056383024</v>
+        <v>0.1381472180965804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.197588</v>
       </c>
       <c r="I8">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J8">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N8">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O8">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P8">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q8">
-        <v>0.4093709634164445</v>
+        <v>0.9891624330475556</v>
       </c>
       <c r="R8">
-        <v>3.684338670748001</v>
+        <v>8.902461897428001</v>
       </c>
       <c r="S8">
-        <v>0.04264912650117149</v>
+        <v>0.07522960195884708</v>
       </c>
       <c r="T8">
-        <v>0.0426491265011715</v>
+        <v>0.07522960195884706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.197588</v>
       </c>
       <c r="I9">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J9">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.452212</v>
       </c>
       <c r="O9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q9">
         <v>0.6246461849617777</v>
@@ -1004,10 +1004,10 @@
         <v>5.621815664656</v>
       </c>
       <c r="S9">
-        <v>0.06507695108264942</v>
+        <v>0.04750674134985845</v>
       </c>
       <c r="T9">
-        <v>0.06507695108264944</v>
+        <v>0.04750674134985845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.197588</v>
       </c>
       <c r="I10">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J10">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.279252</v>
       </c>
       <c r="O10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q10">
         <v>0.401306760464</v>
@@ -1066,10 +1066,10 @@
         <v>3.611760844176</v>
       </c>
       <c r="S10">
-        <v>0.04180898090564705</v>
+        <v>0.03052092037107284</v>
       </c>
       <c r="T10">
-        <v>0.04180898090564705</v>
+        <v>0.03052092037107283</v>
       </c>
     </row>
   </sheetData>
